--- a/forms/app/general_followup.xlsx
+++ b/forms/app/general_followup.xlsx
@@ -68,12 +68,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>Self-quarantine agreement</t>
-  </si>
-  <si>
-    <t>quarantine</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -618,6 +612,12 @@
   </si>
   <si>
     <t xml:space="preserve">Patient phone number: </t>
+  </si>
+  <si>
+    <t>General followup</t>
+  </si>
+  <si>
+    <t>general-followup</t>
   </si>
 </sst>
 </file>
@@ -826,9 +826,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -915,6 +912,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,1287 +1209,1287 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="31" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" style="31" customWidth="1"/>
-    <col min="7" max="8" width="17.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="73.85546875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="31" customWidth="1"/>
-    <col min="13" max="13" width="30" style="31" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="31" customWidth="1"/>
-    <col min="16" max="27" width="29.85546875" style="31" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="31"/>
+    <col min="1" max="1" width="21.28515625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="30" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="30" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" style="30" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="73.85546875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="30" style="30" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="30" customWidth="1"/>
+    <col min="16" max="27" width="29.85546875" style="30" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="J1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="P1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="Q1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="R1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="S1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="C5" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+    </row>
+    <row r="17" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
+      <c r="C17" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S11" s="34"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="39" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+    </row>
+    <row r="18" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-    </row>
-    <row r="17" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="44" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+    </row>
+    <row r="22" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-    </row>
-    <row r="18" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-    </row>
-    <row r="22" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="C24" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-    </row>
-    <row r="26" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+    </row>
+    <row r="26" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="43"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="43"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="43"/>
-      <c r="AA33" s="43"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="43"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="43"/>
-      <c r="AA35" s="43"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="42"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="43"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="43"/>
-      <c r="AA37" s="43"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2545,552 +2545,552 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="27" t="s">
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="B5" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="27" t="s">
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="22"/>
+      <c r="B63" s="21"/>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="22"/>
+      <c r="B64" s="21"/>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="22"/>
+      <c r="B65" s="21"/>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="22"/>
+      <c r="B66" s="21"/>
     </row>
     <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="22"/>
+      <c r="B67" s="21"/>
     </row>
     <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="22"/>
+      <c r="B68" s="21"/>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="22"/>
+      <c r="B69" s="21"/>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="22"/>
+      <c r="B70" s="21"/>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="22"/>
+      <c r="B71" s="21"/>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="22"/>
+      <c r="B72" s="21"/>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="22"/>
+      <c r="B73" s="21"/>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="22"/>
+      <c r="B74" s="21"/>
     </row>
     <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="22"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
-      <c r="B76" s="22"/>
+      <c r="B76" s="21"/>
     </row>
     <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="22"/>
+      <c r="B77" s="21"/>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="22"/>
+      <c r="B78" s="21"/>
     </row>
     <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="22"/>
+      <c r="B79" s="21"/>
     </row>
     <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-      <c r="B80" s="22"/>
+      <c r="B80" s="21"/>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-      <c r="B81" s="22"/>
+      <c r="B81" s="21"/>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-      <c r="B82" s="22"/>
+      <c r="B82" s="21"/>
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
-      <c r="B83" s="22"/>
+      <c r="B83" s="21"/>
     </row>
     <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="22"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="B85" s="22"/>
+      <c r="B85" s="21"/>
     </row>
     <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-      <c r="B86" s="22"/>
+      <c r="B86" s="21"/>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
-      <c r="B87" s="22"/>
+      <c r="B87" s="21"/>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="22"/>
+      <c r="B88" s="21"/>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
-      <c r="B89" s="22"/>
+      <c r="B89" s="21"/>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
-      <c r="B90" s="22"/>
+      <c r="B90" s="21"/>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
-      <c r="B91" s="22"/>
+      <c r="B91" s="21"/>
     </row>
     <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
-      <c r="B92" s="22"/>
+      <c r="B92" s="21"/>
     </row>
     <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
-      <c r="B93" s="22"/>
+      <c r="B93" s="21"/>
     </row>
     <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
-      <c r="B94" s="22"/>
+      <c r="B94" s="21"/>
     </row>
     <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
-      <c r="B95" s="22"/>
+      <c r="B95" s="21"/>
     </row>
     <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="22"/>
+      <c r="B96" s="21"/>
     </row>
     <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
-      <c r="B97" s="22"/>
+      <c r="B97" s="21"/>
     </row>
     <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
-      <c r="B98" s="22"/>
+      <c r="B98" s="21"/>
     </row>
     <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
-      <c r="B99" s="22"/>
+      <c r="B99" s="21"/>
     </row>
     <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
-      <c r="B100" s="22"/>
+      <c r="B100" s="21"/>
     </row>
     <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
-      <c r="B101" s="22"/>
+      <c r="B101" s="21"/>
     </row>
     <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
-      <c r="B102" s="22"/>
+      <c r="B102" s="21"/>
     </row>
     <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="22"/>
+      <c r="B103" s="21"/>
     </row>
     <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
-      <c r="B104" s="22"/>
+      <c r="B104" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3106,7 +3106,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3160,23 +3160,23 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="A2" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44121.724676967591</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>44125.801324074077</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="10" t="s">
-        <v>32</v>
+      <c r="G2" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -3231,23 +3231,23 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>57</v>
+      <c r="F1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -3265,1078 +3265,1078 @@
       <c r="W1" s="4"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-    </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="12" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="12" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="C31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-    </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
+      <c r="C32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4347,26 +4347,26 @@
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4376,25 +4376,25 @@
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -4407,25 +4407,25 @@
       <c r="W48" s="4"/>
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
+      <c r="A49" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -4440,226 +4440,226 @@
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
         <v>120</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="21" t="s">
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="21" t="s">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>98</v>
+      <c r="A61" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>141</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
         <v>152</v>
-      </c>
-      <c r="B69" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>113</v>
+        <v>156</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" t="s">
         <v>157</v>
       </c>
-      <c r="B73" t="s">
-        <v>159</v>
-      </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/forms/app/general_followup.xlsx
+++ b/forms/app/general_followup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1200,7 +1200,7 @@
   </sheetPr>
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3104,7 +3104,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44125.801324074077</v>
+        <v>44125.841781134259</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/general_followup.xlsx
+++ b/forms/app/general_followup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="195">
   <si>
     <t>list_name</t>
   </si>
@@ -570,9 +570,6 @@
   </si>
   <si>
     <t>_id</t>
-  </si>
-  <si>
-    <t>What is the passenger's name?</t>
   </si>
   <si>
     <t>db-object</t>
@@ -1200,11 +1197,11 @@
   </sheetPr>
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1450,14 +1447,14 @@
         <v>179</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
       <c r="H6" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
@@ -1693,7 +1690,7 @@
         <v>95</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>35</v>
@@ -1706,7 +1703,7 @@
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
       <c r="K13" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="39"/>
@@ -1717,7 +1714,7 @@
       <c r="S13" s="39"/>
       <c r="T13" s="40"/>
       <c r="U13" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V13" s="40"/>
       <c r="W13" s="40"/>
@@ -1837,10 +1834,10 @@
         <v>32</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="43" t="s">
         <v>182</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>183</v>
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
@@ -1872,7 +1869,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="43" t="s">
         <v>35</v>
@@ -1904,13 +1901,13 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
@@ -1939,13 +1936,13 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>186</v>
-      </c>
       <c r="C20" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
@@ -1974,13 +1971,13 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
@@ -2012,7 +2009,7 @@
         <v>63</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="44"/>
@@ -2144,7 +2141,7 @@
         <v>63</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="44"/>
@@ -3104,7 +3101,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -3161,14 +3158,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>194</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>195</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44125.841781134259</v>
+        <v>44125.854735069443</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/general_followup.xlsx
+++ b/forms/app/general_followup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1197,7 +1197,7 @@
   </sheetPr>
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3101,7 +3101,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44125.854735069443</v>
+        <v>44129.612407060187</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/general_followup.xlsx
+++ b/forms/app/general_followup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
     <t>General followup</t>
   </si>
   <si>
-    <t>general-followup</t>
+    <t>general_followup</t>
   </si>
 </sst>
 </file>
@@ -635,40 +635,48 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1197,7 +1205,7 @@
   </sheetPr>
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3101,9 +3109,9 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3165,7 +3173,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44129.612407060187</v>
+        <v>44135.521256828702</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
